--- a/study02/report/correlation/signedup-participants/SimpleCorrPairAnalysis-strong.xlsx
+++ b/study02/report/correlation/signedup-participants/SimpleCorrPairAnalysis-strong.xlsx
@@ -6,15 +6,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="strong_spearman_36" r:id="rId3" sheetId="1"/>
+    <sheet name="strong_spearman_9" r:id="rId3" sheetId="1"/>
+    <sheet name="strong_spearman_25" r:id="rId4" sheetId="2"/>
+    <sheet name="strong_spearman_27" r:id="rId5" sheetId="3"/>
+    <sheet name="strong_spearman_36" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
-  <si>
-    <t>Correlation information for DiffTheta - Satisfaction in ont-gamified.Master using the method: spearman</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="52">
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Level of Motivation in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -23,85 +26,151 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffTheta</t>
+    <t>Gains in Skill/Knowledge</t>
+  </si>
+  <si>
+    <t>Level of Motivation</t>
+  </si>
+  <si>
+    <t>Matrix of t-test value</t>
+  </si>
+  <si>
+    <t>Probability of values (p-values)</t>
+  </si>
+  <si>
+    <t>Confidence intervals</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>GiS/K-LvloM</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Level of Motivation in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Level of Motivation in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>NroUSP</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CLGroup</t>
+  </si>
+  <si>
+    <t>CLRole</t>
+  </si>
+  <si>
+    <t>PlayerRole</t>
+  </si>
+  <si>
+    <t>ont-gamified</t>
+  </si>
+  <si>
+    <t>Grupo Tosskor</t>
+  </si>
+  <si>
+    <t>Grupo Paldira</t>
+  </si>
+  <si>
+    <t>Grupo Yeka</t>
+  </si>
+  <si>
+    <t>Grupo Belos</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Yee Achiever</t>
+  </si>
+  <si>
+    <t>Yee Socializer</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Relevance in non-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>GiS/K-Rlvnc</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Relevance in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Relevance in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>non-gamified</t>
+  </si>
+  <si>
+    <t>Grupo Team 6</t>
+  </si>
+  <si>
+    <t>Grupo Team 7</t>
+  </si>
+  <si>
+    <t>Grupo Team 11</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 5</t>
+  </si>
+  <si>
+    <t>Grupo Team 9</t>
+  </si>
+  <si>
+    <t>Grupo Team 8</t>
+  </si>
+  <si>
+    <t>Grupo Team 4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Relevance in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Relevance in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Relevance in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Satisfaction in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Satisfaction</t>
   </si>
   <si>
-    <t>Matrix of t-test value</t>
-  </si>
-  <si>
-    <t>Probability of values (p-values)</t>
-  </si>
-  <si>
-    <t>Confidence intervals</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>upper</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>DffTh-Stsfc</t>
-  </si>
-  <si>
-    <t>Data source for DiffTheta - Satisfaction in ont-gamified.Master</t>
-  </si>
-  <si>
-    <t>Data full source for DiffTheta - Satisfaction in ont-gamified.Master</t>
-  </si>
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>NroUSP</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CLGroup</t>
-  </si>
-  <si>
-    <t>CLRole</t>
-  </si>
-  <si>
-    <t>PlayerRole</t>
-  </si>
-  <si>
-    <t>ont-gamified</t>
-  </si>
-  <si>
-    <t>Grupo Koil</t>
-  </si>
-  <si>
-    <t>Grupo Tosskor</t>
-  </si>
-  <si>
-    <t>Grupo Paldira</t>
-  </si>
-  <si>
-    <t>Grupo Yeka</t>
-  </si>
-  <si>
-    <t>Grupo Belos</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Yee Achiever</t>
-  </si>
-  <si>
-    <t>Yee Socializer</t>
+    <t>GiS/K-Stsfc</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Satisfaction in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Satisfaction in ont-gamified.Master</t>
   </si>
 </sst>
 </file>
@@ -109,13 +178,1432 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="75">
+  <fonts count="297">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -633,7 +2121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -799,6 +2287,498 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -856,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="31">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.7181848464596079</v>
+        <v>-0.737864787372622</v>
       </c>
     </row>
     <row r="7">
@@ -867,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.7181848464596079</v>
+        <v>-0.737864787372622</v>
       </c>
       <c r="C7" t="n" s="32">
         <v>1.0</v>
@@ -901,11 +2881,11 @@
       <c r="A12" t="s" s="46">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="51">
-        <v>8.21912370089156E7</v>
+      <c r="B12" t="e" s="51">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-1.7876387145933723</v>
+        <v>-1.5460413650478524</v>
       </c>
     </row>
     <row r="13">
@@ -913,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-1.7876387145933723</v>
+        <v>-1.5460413650478524</v>
       </c>
       <c r="C13" t="e" s="52">
         <v>#DIV/0!</v>
@@ -948,10 +2928,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="71">
-        <v>3.971862410081728E-24</v>
+        <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.17179530490798875</v>
+        <v>0.262135212627378</v>
       </c>
     </row>
     <row r="19">
@@ -959,7 +2939,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.17179530490798875</v>
+        <v>0.262135212627378</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>-0.0</v>
@@ -1000,16 +2980,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.9796899557141922</v>
+        <v>-0.994031868434138</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.7181848464596079</v>
+        <v>-0.737864787372622</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.4478580350988156</v>
+        <v>0.7674886455346195</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.17179530490798875</v>
+        <v>0.262135212627378</v>
       </c>
     </row>
     <row r="25">
@@ -1037,42 +3017,39 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>0.2573428982524781</v>
+        <v>0.14820426248899476</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>-0.6449742532967924</v>
+        <v>-0.1339123095696113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>0.14688963924618592</v>
+        <v>-0.2883570099110344</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>-0.3480552380430349</v>
+        <v>0.04310669682721945</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>-0.382909871149995</v>
+        <v>-0.0936603935862895</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>0.33286643427263346</v>
+        <v>-0.46850406728072663</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>-0.08233388109376125</v>
+        <v>-0.2883570099110344</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.6449742532967924</v>
+        <v>0.5401201076909151</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n" s="113">
-        <v>-0.3651781225582364</v>
-      </c>
-      <c r="B33" t="n" s="114">
-        <v>0.6632187972364607</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1081,169 +3058,1516 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="118">
+        <v>14</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="118">
-        <v>14</v>
+      <c r="A36" t="s" s="132">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s" s="132">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s" s="132">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="132">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s" s="132">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s" s="132">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s" s="132">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s" s="132">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s" s="132">
-        <v>3</v>
-      </c>
-      <c r="H37" t="s" s="132">
-        <v>4</v>
+      <c r="A37" t="n" s="133">
+        <v>10185.0</v>
+      </c>
+      <c r="B37" t="n" s="134">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C37" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s" s="137">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s" s="138">
+        <v>27</v>
+      </c>
+      <c r="G37" t="n" s="139">
+        <v>0.14820426248899476</v>
+      </c>
+      <c r="H37" t="n" s="140">
+        <v>-0.1339123095696113</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="133">
-        <v>10172.0</v>
+        <v>10188.0</v>
       </c>
       <c r="B38" t="n" s="134">
-        <v>1.0273971E7</v>
+        <v>1.0276995E7</v>
       </c>
       <c r="C38" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D38" t="s" s="136">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s" s="137">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s" s="138">
         <v>27</v>
       </c>
-      <c r="F38" t="s" s="138">
-        <v>28</v>
-      </c>
       <c r="G38" t="n" s="139">
-        <v>0.2573428982524781</v>
+        <v>-0.2883570099110344</v>
       </c>
       <c r="H38" t="n" s="140">
-        <v>-0.6449742532967924</v>
+        <v>0.04310669682721945</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="133">
-        <v>10185.0</v>
+        <v>10208.0</v>
       </c>
       <c r="B39" t="n" s="134">
-        <v>1.027696E7</v>
+        <v>1.0276932E7</v>
       </c>
       <c r="C39" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D39" t="s" s="136">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s" s="137">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s" s="138">
         <v>28</v>
       </c>
       <c r="G39" t="n" s="139">
-        <v>0.14688963924618592</v>
+        <v>-0.0936603935862895</v>
       </c>
       <c r="H39" t="n" s="140">
-        <v>-0.3480552380430349</v>
+        <v>-0.46850406728072663</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="133">
-        <v>10188.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B40" t="n" s="134">
-        <v>1.0276995E7</v>
+        <v>9805341.0</v>
       </c>
       <c r="C40" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D40" t="s" s="136">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s" s="137">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s" s="138">
         <v>28</v>
       </c>
       <c r="G40" t="n" s="139">
-        <v>-0.382909871149995</v>
+        <v>-0.2883570099110344</v>
       </c>
       <c r="H40" t="n" s="140">
-        <v>0.33286643427263346</v>
+        <v>0.5401201076909151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="142">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="170">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="170">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="166">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="171">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="172">
+        <v>0.7365429242103545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="166">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n" s="171">
+        <v>0.7365429242103545</v>
+      </c>
+      <c r="C7" t="n" s="172">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="190">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="190">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="186">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="191">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="192">
+        <v>2.6673253468463223</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="186">
+        <v>30</v>
+      </c>
+      <c r="B13" t="n" s="191">
+        <v>2.6673253468463223</v>
+      </c>
+      <c r="C13" t="n" s="192">
+        <v>1.6438247401783124E8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="210">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="210">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="206">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="211">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="212">
+        <v>0.03715893543049666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="206">
+        <v>30</v>
+      </c>
+      <c r="B19" t="n" s="211">
+        <v>0.03715893543049666</v>
+      </c>
+      <c r="C19" t="n" s="212">
+        <v>3.4211388289180694E-48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="230">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="230">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="230">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="226">
+        <v>31</v>
+      </c>
+      <c r="B24" t="n" s="231">
+        <v>0.06626079873298256</v>
+      </c>
+      <c r="C24" t="n" s="232">
+        <v>0.7365429242103545</v>
+      </c>
+      <c r="D24" t="n" s="233">
+        <v>0.9487788762233393</v>
+      </c>
+      <c r="E24" t="n" s="234">
+        <v>0.03715893543049666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="238">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="252">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="252">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="253">
+        <v>0.10936128804170442</v>
+      </c>
+      <c r="B29" t="n" s="254">
+        <v>0.713937307269422</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="253">
+        <v>0.020923419414545792</v>
+      </c>
+      <c r="B30" t="n" s="254">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="253">
+        <v>-0.0384477872777069</v>
+      </c>
+      <c r="B31" t="n" s="254">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="253">
+        <v>0.03479485469110266</v>
+      </c>
+      <c r="B32" t="n" s="254">
+        <v>0.131585852677883</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="253">
+        <v>-0.014255977234340897</v>
+      </c>
+      <c r="B33" t="n" s="254">
+        <v>0.713937307269422</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="253">
+        <v>-0.06206997155468907</v>
+      </c>
+      <c r="B34" t="n" s="254">
+        <v>-0.11445695422023318</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="253">
+        <v>-0.03911696250900538</v>
+      </c>
+      <c r="B35" t="n" s="254">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="253">
+        <v>0.015799471351835626</v>
+      </c>
+      <c r="B36" t="n" s="254">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="258">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="272">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s" s="272">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s" s="272">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s" s="272">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s" s="272">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s" s="272">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s" s="272">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s" s="272">
+        <v>30</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="133">
+      <c r="A41" t="n" s="273">
+        <v>10175.0</v>
+      </c>
+      <c r="B41" t="n" s="274">
+        <v>1.03107E7</v>
+      </c>
+      <c r="C41" t="s" s="275">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s" s="276">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s" s="277">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s" s="278">
+        <v>43</v>
+      </c>
+      <c r="G41" t="n" s="279">
+        <v>0.10936128804170442</v>
+      </c>
+      <c r="H41" t="n" s="280">
+        <v>0.713937307269422</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="273">
+        <v>10184.0</v>
+      </c>
+      <c r="B42" t="n" s="274">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C42" t="s" s="275">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s" s="276">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s" s="277">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s" s="278">
+        <v>43</v>
+      </c>
+      <c r="G42" t="n" s="279">
+        <v>0.020923419414545792</v>
+      </c>
+      <c r="H42" t="n" s="280">
+        <v>0.5788749914041235</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="273">
+        <v>10197.0</v>
+      </c>
+      <c r="B43" t="n" s="274">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C43" t="s" s="275">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s" s="276">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s" s="277">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s" s="278">
+        <v>43</v>
+      </c>
+      <c r="G43" t="n" s="279">
+        <v>-0.0384477872777069</v>
+      </c>
+      <c r="H43" t="n" s="280">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="273">
+        <v>10201.0</v>
+      </c>
+      <c r="B44" t="n" s="274">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C44" t="s" s="275">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s" s="276">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s" s="277">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s" s="278">
+        <v>43</v>
+      </c>
+      <c r="G44" t="n" s="279">
+        <v>0.03479485469110266</v>
+      </c>
+      <c r="H44" t="n" s="280">
+        <v>0.131585852677883</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="273">
+        <v>10204.0</v>
+      </c>
+      <c r="B45" t="n" s="274">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C45" t="s" s="275">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s" s="276">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s" s="277">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s" s="278">
+        <v>43</v>
+      </c>
+      <c r="G45" t="n" s="279">
+        <v>-0.014255977234340897</v>
+      </c>
+      <c r="H45" t="n" s="280">
+        <v>0.713937307269422</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="273">
+        <v>10206.0</v>
+      </c>
+      <c r="B46" t="n" s="274">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C46" t="s" s="275">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s" s="276">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s" s="277">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s" s="278">
+        <v>43</v>
+      </c>
+      <c r="G46" t="n" s="279">
+        <v>-0.06206997155468907</v>
+      </c>
+      <c r="H46" t="n" s="280">
+        <v>-0.11445695422023318</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="273">
+        <v>10213.0</v>
+      </c>
+      <c r="B47" t="n" s="274">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C47" t="s" s="275">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s" s="276">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s" s="277">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s" s="278">
+        <v>43</v>
+      </c>
+      <c r="G47" t="n" s="279">
+        <v>-0.03911696250900538</v>
+      </c>
+      <c r="H47" t="n" s="280">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="273">
+        <v>10231.0</v>
+      </c>
+      <c r="B48" t="n" s="274">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C48" t="s" s="275">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s" s="276">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s" s="277">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s" s="278">
+        <v>43</v>
+      </c>
+      <c r="G48" t="n" s="279">
+        <v>0.015799471351835626</v>
+      </c>
+      <c r="H48" t="n" s="280">
+        <v>0.0060927837546178865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="282">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="310">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="310">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="306">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="311">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="312">
+        <v>-0.737864787372622</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="306">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n" s="311">
+        <v>-0.737864787372622</v>
+      </c>
+      <c r="C7" t="n" s="312">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="330">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="330">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="326">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="331">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="332">
+        <v>-1.5460413650478524</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="326">
+        <v>30</v>
+      </c>
+      <c r="B13" t="n" s="331">
+        <v>-1.5460413650478524</v>
+      </c>
+      <c r="C13" t="e" s="332">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="350">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="350">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="346">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="351">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="352">
+        <v>0.262135212627378</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="346">
+        <v>30</v>
+      </c>
+      <c r="B19" t="n" s="351">
+        <v>0.262135212627378</v>
+      </c>
+      <c r="C19" t="n" s="352">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="370">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="370">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="370">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="370">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="366">
+        <v>31</v>
+      </c>
+      <c r="B24" t="n" s="371">
+        <v>-0.994031868434138</v>
+      </c>
+      <c r="C24" t="n" s="372">
+        <v>-0.737864787372622</v>
+      </c>
+      <c r="D24" t="n" s="373">
+        <v>0.7674886455346195</v>
+      </c>
+      <c r="E24" t="n" s="374">
+        <v>0.262135212627378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="378">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="392">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="392">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="393">
+        <v>0.14820426248899476</v>
+      </c>
+      <c r="B29" t="n" s="394">
+        <v>-0.11445695422023319</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="393">
+        <v>-0.2883570099110344</v>
+      </c>
+      <c r="B30" t="n" s="394">
+        <v>0.131585852677883</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="393">
+        <v>-0.0936603935862895</v>
+      </c>
+      <c r="B31" t="n" s="394">
+        <v>-0.5949158819442965</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="393">
+        <v>-0.2883570099110344</v>
+      </c>
+      <c r="B32" t="n" s="394">
+        <v>0.4119500258079539</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="398">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s" s="412">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s" s="412">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s" s="412">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s" s="412">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="413">
+        <v>10185.0</v>
+      </c>
+      <c r="B37" t="n" s="414">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C37" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s" s="416">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s" s="417">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s" s="418">
+        <v>27</v>
+      </c>
+      <c r="G37" t="n" s="419">
+        <v>0.14820426248899476</v>
+      </c>
+      <c r="H37" t="n" s="420">
+        <v>-0.11445695422023319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="413">
+        <v>10188.0</v>
+      </c>
+      <c r="B38" t="n" s="414">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C38" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s" s="416">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s" s="417">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s" s="418">
+        <v>27</v>
+      </c>
+      <c r="G38" t="n" s="419">
+        <v>-0.2883570099110344</v>
+      </c>
+      <c r="H38" t="n" s="420">
+        <v>0.131585852677883</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="413">
         <v>10208.0</v>
       </c>
-      <c r="B41" t="n" s="134">
+      <c r="B39" t="n" s="414">
         <v>1.0276932E7</v>
       </c>
-      <c r="C41" t="s" s="135">
+      <c r="C39" t="s" s="415">
         <v>21</v>
       </c>
-      <c r="D41" t="s" s="136">
+      <c r="D39" t="s" s="416">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s" s="417">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s" s="418">
+        <v>28</v>
+      </c>
+      <c r="G39" t="n" s="419">
+        <v>-0.0936603935862895</v>
+      </c>
+      <c r="H39" t="n" s="420">
+        <v>-0.5949158819442965</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="413">
+        <v>10217.0</v>
+      </c>
+      <c r="B40" t="n" s="414">
+        <v>9805341.0</v>
+      </c>
+      <c r="C40" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="416">
         <v>25</v>
       </c>
-      <c r="E41" t="s" s="137">
+      <c r="E40" t="s" s="417">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s" s="418">
+        <v>28</v>
+      </c>
+      <c r="G40" t="n" s="419">
+        <v>-0.2883570099110344</v>
+      </c>
+      <c r="H40" t="n" s="420">
+        <v>0.4119500258079539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="422">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="450">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="450">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="446">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="451">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="452">
+        <v>-0.737864787372622</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="446">
+        <v>48</v>
+      </c>
+      <c r="B7" t="n" s="451">
+        <v>-0.737864787372622</v>
+      </c>
+      <c r="C7" t="n" s="452">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="470">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="470">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="466">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="471">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="472">
+        <v>-1.5460413650478524</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="466">
+        <v>48</v>
+      </c>
+      <c r="B13" t="n" s="471">
+        <v>-1.5460413650478524</v>
+      </c>
+      <c r="C13" t="e" s="472">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="476">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="490">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="490">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="486">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="491">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="492">
+        <v>0.262135212627378</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="486">
+        <v>48</v>
+      </c>
+      <c r="B19" t="n" s="491">
+        <v>0.262135212627378</v>
+      </c>
+      <c r="C19" t="n" s="492">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="510">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="510">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="510">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="510">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="506">
+        <v>49</v>
+      </c>
+      <c r="B24" t="n" s="511">
+        <v>-0.994031868434138</v>
+      </c>
+      <c r="C24" t="n" s="512">
+        <v>-0.737864787372622</v>
+      </c>
+      <c r="D24" t="n" s="513">
+        <v>0.7674886455346195</v>
+      </c>
+      <c r="E24" t="n" s="514">
+        <v>0.262135212627378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="518">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="532">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="532">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="533">
+        <v>0.14820426248899476</v>
+      </c>
+      <c r="B29" t="n" s="534">
+        <v>-0.3483438820571504</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="533">
+        <v>-0.2883570099110344</v>
+      </c>
+      <c r="B30" t="n" s="534">
+        <v>0.3328125066690014</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="533">
+        <v>-0.0936603935862895</v>
+      </c>
+      <c r="B31" t="n" s="534">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="533">
+        <v>-0.2883570099110344</v>
+      </c>
+      <c r="B32" t="n" s="534">
+        <v>0.6632376549259231</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="538">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="552">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s" s="552">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s" s="552">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s" s="552">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s" s="552">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s" s="552">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s" s="552">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s" s="552">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="553">
+        <v>10185.0</v>
+      </c>
+      <c r="B37" t="n" s="554">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C37" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s" s="556">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s" s="557">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s" s="558">
         <v>27</v>
       </c>
-      <c r="F41" t="s" s="138">
-        <v>29</v>
-      </c>
-      <c r="G41" t="n" s="139">
-        <v>-0.08233388109376125</v>
-      </c>
-      <c r="H41" t="n" s="140">
-        <v>-0.6449742532967924</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="133">
+      <c r="G37" t="n" s="559">
+        <v>0.14820426248899476</v>
+      </c>
+      <c r="H37" t="n" s="560">
+        <v>-0.3483438820571504</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="553">
+        <v>10188.0</v>
+      </c>
+      <c r="B38" t="n" s="554">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C38" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s" s="556">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s" s="557">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s" s="558">
+        <v>27</v>
+      </c>
+      <c r="G38" t="n" s="559">
+        <v>-0.2883570099110344</v>
+      </c>
+      <c r="H38" t="n" s="560">
+        <v>0.3328125066690014</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="553">
+        <v>10208.0</v>
+      </c>
+      <c r="B39" t="n" s="554">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C39" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="556">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s" s="557">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s" s="558">
+        <v>28</v>
+      </c>
+      <c r="G39" t="n" s="559">
+        <v>-0.0936603935862895</v>
+      </c>
+      <c r="H39" t="n" s="560">
+        <v>-0.6453697643218501</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="553">
         <v>10217.0</v>
       </c>
-      <c r="B42" t="n" s="134">
+      <c r="B40" t="n" s="554">
         <v>9805341.0</v>
       </c>
-      <c r="C42" t="s" s="135">
+      <c r="C40" t="s" s="555">
         <v>21</v>
       </c>
-      <c r="D42" t="s" s="136">
+      <c r="D40" t="s" s="556">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s" s="557">
         <v>26</v>
       </c>
-      <c r="E42" t="s" s="137">
-        <v>27</v>
-      </c>
-      <c r="F42" t="s" s="138">
-        <v>29</v>
-      </c>
-      <c r="G42" t="n" s="139">
-        <v>-0.3651781225582364</v>
-      </c>
-      <c r="H42" t="n" s="140">
-        <v>0.6632187972364607</v>
+      <c r="F40" t="s" s="558">
+        <v>28</v>
+      </c>
+      <c r="G40" t="n" s="559">
+        <v>-0.2883570099110344</v>
+      </c>
+      <c r="H40" t="n" s="560">
+        <v>0.6632376549259231</v>
       </c>
     </row>
   </sheetData>
